--- a/data/raw_data/2025/permits-by-nationality-2025.xlsx
+++ b/data/raw_data/2025/permits-by-nationality-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naughtm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4340F4-4DD5-4E11-85BF-4D80025D57EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E42839-DA08-4BE4-841A-0B035EAEF012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{198A369C-BC03-4914-A2A7-D53A838C634D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB591E97-0C2E-4C8A-8183-6C6A3BD43A49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,614 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo, The Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kosova</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Macedonia, The Former Yugoslav Republic of</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Serbia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
   <si>
     <t>2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Nationality </t>
+  </si>
+  <si>
     <t>Issued</t>
   </si>
   <si>
@@ -48,603 +651,6 @@
   </si>
   <si>
     <t>Withdrawn</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Congo, The Democratic Republic of the</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kosova</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Tibet</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality </t>
-  </si>
-  <si>
-    <t>Aland Islands</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Channel Islands</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libyan Arab Jamahiriya</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
   </si>
   <si>
     <t>No Country Entered</t>
@@ -654,19 +660,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -680,6 +680,18 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -719,31 +731,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,72 +1092,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7455ADE4-FD4C-43B1-BA87-44A47EBED6EF}">
-  <dimension ref="A1:D202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79BDF71-64B3-40DE-B22F-7AB131AC8E6E}">
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="5">
+        <v>22542</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2421</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
-        <v>19903</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2234</v>
-      </c>
-      <c r="D3" s="6">
-        <v>12133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -1155,106 +1170,108 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>120</v>
+      <c r="A6" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B8" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>121</v>
+      <c r="A9" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>122</v>
+      <c r="A10" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>123</v>
+      <c r="A11" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>124</v>
+      <c r="A12" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>125</v>
+      <c r="A13" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>126</v>
+      <c r="A14" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
+      <c r="A15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B15" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
+      <c r="A16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="7">
         <v>4</v>
@@ -1265,40 +1282,40 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>127</v>
+      <c r="A17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
+      <c r="A18" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="7">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
+      <c r="A19" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
+      <c r="A20" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -1309,34 +1326,34 @@
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
+      <c r="A21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
+      <c r="A22" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B22" s="7">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>128</v>
+      <c r="A23" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1345,11 +1362,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
+      <c r="A24" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7">
@@ -1357,8 +1374,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
+      <c r="A25" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
@@ -1367,8 +1384,8 @@
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
+      <c r="A26" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -1377,16 +1394,16 @@
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>129</v>
+      <c r="A27" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>130</v>
+      <c r="A28" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7">
@@ -1395,22 +1412,22 @@
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
+      <c r="A29" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="7">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C29" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D29" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
+      <c r="A30" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -1421,52 +1438,52 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
+      <c r="A31" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B31" s="7">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C31" s="7">
         <v>25</v>
       </c>
       <c r="D31" s="7">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>131</v>
+      <c r="A32" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>21</v>
+      <c r="A33" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B33" s="7">
-        <v>2123</v>
+        <v>2425</v>
       </c>
       <c r="C33" s="7">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>1334</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>132</v>
+      <c r="A34" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>133</v>
+      <c r="A35" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B35" s="7">
         <v>3</v>
@@ -1477,24 +1494,24 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>134</v>
+      <c r="A36" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>135</v>
+      <c r="A37" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>136</v>
+      <c r="A38" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B38" s="7">
         <v>1</v>
@@ -1503,112 +1520,112 @@
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>137</v>
+      <c r="A39" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>22</v>
+      <c r="A40" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B40" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" s="7">
         <v>4</v>
       </c>
       <c r="D40" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>23</v>
+      <c r="A41" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B41" s="7">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C41" s="7">
         <v>9</v>
       </c>
       <c r="D41" s="7">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>138</v>
+      <c r="A42" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>139</v>
+      <c r="A43" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>140</v>
+      <c r="A44" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>141</v>
+      <c r="A45" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>142</v>
+      <c r="A46" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>24</v>
+      <c r="A47" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B47" s="7">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C47" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="7">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
+      <c r="A48" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B48" s="7">
-        <v>1234</v>
+        <v>1416</v>
       </c>
       <c r="C48" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D48" s="7">
-        <v>394</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>26</v>
+      <c r="A49" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1617,30 +1634,30 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>27</v>
+      <c r="A50" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B50" s="7">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C50" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D50" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>143</v>
+      <c r="A51" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>144</v>
+      <c r="A52" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B52" s="7">
         <v>1</v>
@@ -1649,8 +1666,8 @@
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>28</v>
+      <c r="A53" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B53" s="7">
         <v>7</v>
@@ -1661,54 +1678,58 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>29</v>
+      <c r="A54" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B54" s="7">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C54" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>145</v>
+      <c r="A55" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>146</v>
+      <c r="A56" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="7"/>
+      <c r="A57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>148</v>
+      <c r="A58" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>149</v>
+      <c r="A59" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1717,8 +1738,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>30</v>
+      <c r="A60" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B60" s="7">
         <v>2</v>
@@ -1727,8 +1748,8 @@
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>31</v>
+      <c r="A61" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B61" s="7">
         <v>1</v>
@@ -1737,52 +1758,54 @@
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>32</v>
+      <c r="A62" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B62" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>33</v>
+      <c r="A63" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B63" s="7">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C63" s="7">
         <v>16</v>
       </c>
       <c r="D63" s="7">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>34</v>
+      <c r="A64" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B64" s="7">
-        <v>30</v>
-      </c>
-      <c r="C64" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
       <c r="D64" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>150</v>
+      <c r="A65" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>35</v>
+      <c r="A66" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B66" s="7">
         <v>1</v>
@@ -1791,54 +1814,54 @@
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>151</v>
+      <c r="A67" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>36</v>
+      <c r="A68" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B68" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>37</v>
+      <c r="A69" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B69" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>152</v>
+      <c r="A70" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>153</v>
+      <c r="A71" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>38</v>
+      <c r="A72" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7">
@@ -1849,55 +1872,55 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>39</v>
+      <c r="A73" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B73" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C73" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D73" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>154</v>
+      <c r="A74" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>40</v>
+      <c r="A75" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B75" s="7">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C75" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" s="7">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>155</v>
+      <c r="A76" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>41</v>
+      <c r="A77" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B77" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -1905,22 +1928,22 @@
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>42</v>
+      <c r="A78" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B78" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C78" s="7">
         <v>3</v>
       </c>
       <c r="D78" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>156</v>
+      <c r="A79" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B79" s="7">
         <v>1</v>
@@ -1929,16 +1952,16 @@
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>157</v>
+      <c r="A80" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>158</v>
+      <c r="A81" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B81" s="7">
         <v>2</v>
@@ -1947,30 +1970,30 @@
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>159</v>
+      <c r="A82" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>43</v>
+      <c r="A83" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B83" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C83" s="7">
         <v>2</v>
       </c>
       <c r="D83" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>44</v>
+      <c r="A84" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B84" s="7">
         <v>19</v>
@@ -1981,48 +2004,48 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>45</v>
+      <c r="A85" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B85" s="7">
-        <v>6099</v>
+        <v>6975</v>
       </c>
       <c r="C85" s="7">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="D85" s="7">
-        <v>2651</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>46</v>
+      <c r="A86" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B86" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C86" s="7">
         <v>6</v>
       </c>
       <c r="D86" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>47</v>
+      <c r="A87" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B87" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>48</v>
+      <c r="A88" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B88" s="7">
         <v>10</v>
@@ -2033,40 +2056,40 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>160</v>
+      <c r="A89" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>49</v>
+      <c r="A90" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B90" s="7">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C90" s="7">
         <v>6</v>
       </c>
       <c r="D90" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>161</v>
+      <c r="A91" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>50</v>
+      <c r="A92" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B92" s="7">
         <v>1</v>
@@ -2075,35 +2098,35 @@
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>51</v>
+      <c r="A93" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B93" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>52</v>
+      <c r="A94" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B94" s="7">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C94" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>53</v>
+      <c r="A95" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B95" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -2113,8 +2136,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>54</v>
+      <c r="A96" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B96" s="7">
         <v>20</v>
@@ -2125,68 +2148,70 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>55</v>
+      <c r="A97" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B97" s="7">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C97" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>162</v>
+      <c r="A98" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>56</v>
+      <c r="A99" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B99" s="7">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C99" s="7">
         <v>7</v>
       </c>
       <c r="D99" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>57</v>
+      <c r="A100" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B100" s="7">
         <v>25</v>
       </c>
       <c r="C100" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>163</v>
+      <c r="A101" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B101" s="7">
         <v>1</v>
       </c>
       <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="D101" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>58</v>
+      <c r="A102" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B102" s="7">
         <v>17</v>
@@ -2195,27 +2220,27 @@
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>164</v>
+      <c r="A103" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>165</v>
+      <c r="A104" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>59</v>
+      <c r="A105" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B105" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7">
@@ -2223,8 +2248,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>60</v>
+      <c r="A106" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B106" s="7">
         <v>6</v>
@@ -2237,19 +2262,19 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>166</v>
+      <c r="A107" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>61</v>
+      <c r="A108" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B108" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7">
@@ -2257,24 +2282,24 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>167</v>
+      <c r="A109" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>168</v>
+      <c r="A110" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>62</v>
+      <c r="A111" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B111" s="7">
         <v>1</v>
@@ -2283,8 +2308,8 @@
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>169</v>
+      <c r="A112" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B112" s="7">
         <v>4</v>
@@ -2293,42 +2318,44 @@
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>170</v>
+      <c r="A113" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>63</v>
+      <c r="A114" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B114" s="7">
-        <v>15</v>
-      </c>
-      <c r="C114" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1</v>
+      </c>
       <c r="D114" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>64</v>
+      <c r="A115" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B115" s="7">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="C115" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D115" s="7">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>171</v>
+      <c r="A116" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B116" s="7">
         <v>1</v>
@@ -2339,40 +2366,40 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>172</v>
+      <c r="A117" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>173</v>
+      <c r="A118" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>174</v>
+      <c r="A119" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>175</v>
+      <c r="A120" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>65</v>
+      <c r="A121" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="B121" s="7">
         <v>20</v>
@@ -2381,102 +2408,102 @@
         <v>2</v>
       </c>
       <c r="D121" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>66</v>
+      <c r="A122" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B122" s="7">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C122" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D122" s="7">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>67</v>
+      <c r="A123" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B123" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C123" s="7">
         <v>4</v>
       </c>
       <c r="D123" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>176</v>
+      <c r="A124" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>68</v>
+      <c r="A125" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B125" s="7">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C125" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D125" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>69</v>
+      <c r="A126" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B126" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C126" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>70</v>
+      <c r="A127" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B127" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>71</v>
+      <c r="A128" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B128" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C128" s="7">
         <v>1</v>
       </c>
       <c r="D128" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>72</v>
+      <c r="A129" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B129" s="7">
         <v>5</v>
@@ -2487,39 +2514,39 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>73</v>
+      <c r="A130" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B130" s="7">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="C130" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D130" s="7">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>74</v>
+      <c r="A131" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B131" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C131" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D131" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>75</v>
+      <c r="A132" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B132" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" s="7">
         <v>2</v>
@@ -2529,121 +2556,123 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>177</v>
+      <c r="A133" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>76</v>
+      <c r="A134" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B134" s="7">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="C134" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D134" s="7">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>178</v>
+      <c r="A135" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>179</v>
+      <c r="A136" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>77</v>
+      <c r="A137" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B137" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>78</v>
+      <c r="A138" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B138" s="7">
-        <v>1042</v>
+        <v>1146</v>
       </c>
       <c r="C138" s="7">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D138" s="7">
-        <v>549</v>
+        <v>613</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>79</v>
+      <c r="A139" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B139" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>80</v>
+      <c r="A140" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B140" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140" s="7">
         <v>2</v>
       </c>
       <c r="D140" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>180</v>
+      <c r="A141" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>81</v>
+      <c r="A142" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B142" s="7">
         <v>14</v>
       </c>
-      <c r="C142" s="7"/>
+      <c r="C142" s="7">
+        <v>1</v>
+      </c>
       <c r="D142" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>82</v>
+      <c r="A143" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B143" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7">
@@ -2651,38 +2680,38 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>83</v>
+      <c r="A144" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B144" s="7">
-        <v>2137</v>
+        <v>2421</v>
       </c>
       <c r="C144" s="7">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D144" s="7">
-        <v>900</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>181</v>
+      <c r="A145" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>182</v>
+      <c r="A146" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>183</v>
+      <c r="A147" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B147" s="7">
         <v>1</v>
@@ -2691,16 +2720,16 @@
       <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>184</v>
+      <c r="A148" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>185</v>
+      <c r="A149" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B149" s="7">
         <v>2</v>
@@ -2711,33 +2740,33 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>186</v>
+      <c r="A150" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>84</v>
+      <c r="A151" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B151" s="7">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C151" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D151" s="7">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>85</v>
+      <c r="A152" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B152" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7">
@@ -2745,19 +2774,19 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>187</v>
+      <c r="A153" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>86</v>
+      <c r="A154" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="B154" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C154" s="7">
         <v>1</v>
@@ -2767,43 +2796,43 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>188</v>
+      <c r="A155" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>189</v>
+      <c r="A156" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>190</v>
+      <c r="A157" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>191</v>
+      <c r="A158" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>87</v>
+      <c r="A159" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B159" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7">
@@ -2811,8 +2840,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>88</v>
+      <c r="A160" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B160" s="7">
         <v>3</v>
@@ -2821,8 +2850,8 @@
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>89</v>
+      <c r="A161" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B161" s="7">
         <v>14</v>
@@ -2835,28 +2864,28 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>192</v>
+      <c r="A162" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>90</v>
+      <c r="A163" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="B163" s="7">
         <v>5</v>
       </c>
       <c r="C163" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>91</v>
+      <c r="A164" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="B164" s="7">
         <v>2</v>
@@ -2867,461 +2896,465 @@
       <c r="D164" s="7"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>92</v>
+      <c r="A165" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="B165" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C165" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>193</v>
+      <c r="A166" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>194</v>
+      <c r="A167" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="B167" s="7">
         <v>1</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>93</v>
+      <c r="A168" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="B168" s="7">
-        <v>844</v>
+        <v>940</v>
       </c>
       <c r="C168" s="7">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D168" s="7">
-        <v>523</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>195</v>
+      <c r="A169" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
+      <c r="D169" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B170" s="7">
-        <v>432</v>
-      </c>
-      <c r="C170" s="7">
-        <v>33</v>
-      </c>
-      <c r="D170" s="7">
-        <v>365</v>
-      </c>
+      <c r="A170" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>95</v>
+      <c r="A171" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B171" s="7">
-        <v>140</v>
+        <v>487</v>
       </c>
       <c r="C171" s="7">
+        <v>36</v>
+      </c>
+      <c r="D171" s="7">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" s="7">
+        <v>153</v>
+      </c>
+      <c r="C172" s="7">
         <v>2</v>
       </c>
-      <c r="D171" s="7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7">
+        <v>111</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B173" s="7">
+      <c r="A173" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="7">
         <v>5</v>
       </c>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-    </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B175" s="7">
+      <c r="A175" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177" s="7">
         <v>8</v>
       </c>
-      <c r="C175" s="7">
-        <v>1</v>
-      </c>
-      <c r="D175" s="7">
+      <c r="C177" s="7">
+        <v>1</v>
+      </c>
+      <c r="D177" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B176" s="7">
-        <v>52</v>
-      </c>
-      <c r="C176" s="7">
-        <v>1</v>
-      </c>
-      <c r="D176" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B177" s="7">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" s="7">
+        <v>57</v>
+      </c>
+      <c r="C178" s="7">
+        <v>1</v>
+      </c>
+      <c r="D178" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" s="7">
         <v>11</v>
       </c>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B178" s="7">
-        <v>12</v>
-      </c>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B180" s="7">
+        <v>13</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B179" s="7">
-        <v>324</v>
-      </c>
-      <c r="C179" s="7">
-        <v>21</v>
-      </c>
-      <c r="D179" s="7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B180" s="7">
-        <v>1</v>
-      </c>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-    </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
+      <c r="A181" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" s="7">
+        <v>368</v>
+      </c>
+      <c r="C181" s="7">
+        <v>22</v>
+      </c>
+      <c r="D181" s="7">
+        <v>71</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" s="7"/>
+      <c r="A182" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" s="7">
+        <v>1</v>
+      </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>201</v>
+      <c r="A183" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B184" s="7">
-        <v>19</v>
-      </c>
+      <c r="A184" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" s="7"/>
       <c r="C184" s="7"/>
-      <c r="D184" s="7">
-        <v>7</v>
-      </c>
+      <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B185" s="7">
-        <v>30</v>
-      </c>
-      <c r="C185" s="7">
+      <c r="A185" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="7">
+        <v>20</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B187" s="7">
+        <v>34</v>
+      </c>
+      <c r="C187" s="7">
+        <v>3</v>
+      </c>
+      <c r="D187" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188" s="7">
+        <v>240</v>
+      </c>
+      <c r="C188" s="7">
+        <v>14</v>
+      </c>
+      <c r="D188" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B189" s="7">
+        <v>1</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B190" s="7">
+        <v>1</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B191" s="7">
+        <v>49</v>
+      </c>
+      <c r="C191" s="7">
+        <v>6</v>
+      </c>
+      <c r="D191" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="7">
+        <v>133</v>
+      </c>
+      <c r="C192" s="7">
+        <v>6</v>
+      </c>
+      <c r="D192" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B193" s="7">
+        <v>1</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B194" s="7">
+        <v>1</v>
+      </c>
+      <c r="C194" s="7">
+        <v>1</v>
+      </c>
+      <c r="D194" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B195" s="7">
+        <v>788</v>
+      </c>
+      <c r="C195" s="7">
+        <v>59</v>
+      </c>
+      <c r="D195" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B196" s="7">
+        <v>10</v>
+      </c>
+      <c r="C196" s="7">
+        <v>6</v>
+      </c>
+      <c r="D196" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B197" s="7">
+        <v>12</v>
+      </c>
+      <c r="C197" s="7">
+        <v>1</v>
+      </c>
+      <c r="D197" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B198" s="7">
         <v>2</v>
       </c>
-      <c r="D185" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B186" s="7">
-        <v>204</v>
-      </c>
-      <c r="C186" s="7">
-        <v>13</v>
-      </c>
-      <c r="D186" s="7">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B187" s="7">
-        <v>1</v>
-      </c>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B188" s="7">
-        <v>1</v>
-      </c>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B189" s="7">
-        <v>45</v>
-      </c>
-      <c r="C189" s="7">
-        <v>6</v>
-      </c>
-      <c r="D189" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B190" s="7">
-        <v>115</v>
-      </c>
-      <c r="C190" s="7">
-        <v>6</v>
-      </c>
-      <c r="D190" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B191" s="7">
-        <v>1</v>
-      </c>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B192" s="7">
-        <v>1</v>
-      </c>
-      <c r="C192" s="7">
-        <v>1</v>
-      </c>
-      <c r="D192" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B193" s="7">
-        <v>699</v>
-      </c>
-      <c r="C193" s="7">
-        <v>56</v>
-      </c>
-      <c r="D193" s="7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B194" s="7">
-        <v>9</v>
-      </c>
-      <c r="C194" s="7">
-        <v>5</v>
-      </c>
-      <c r="D194" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B195" s="7">
-        <v>10</v>
-      </c>
-      <c r="C195" s="7">
-        <v>1</v>
-      </c>
-      <c r="D195" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B196" s="7">
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B199" s="7">
+        <v>14</v>
+      </c>
+      <c r="C199" s="7">
         <v>2</v>
       </c>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B197" s="7">
-        <v>11</v>
-      </c>
-      <c r="C197" s="7">
-        <v>2</v>
-      </c>
-      <c r="D197" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B198" s="7">
-        <v>73</v>
-      </c>
-      <c r="C198" s="7">
-        <v>4</v>
-      </c>
-      <c r="D198" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B199" s="7">
-        <v>3</v>
-      </c>
-      <c r="C199" s="7"/>
       <c r="D199" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>117</v>
+      <c r="A200" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B200" s="7">
+        <v>84</v>
+      </c>
+      <c r="C200" s="7">
+        <v>4</v>
+      </c>
+      <c r="D200" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B201" s="7">
+        <v>3</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B202" s="7">
+        <v>14</v>
+      </c>
+      <c r="C202" s="7">
+        <v>3</v>
+      </c>
+      <c r="D202" s="7">
         <v>13</v>
       </c>
-      <c r="C200" s="7">
-        <v>3</v>
-      </c>
-      <c r="D200" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B201" s="7">
-        <v>540</v>
-      </c>
-      <c r="C201" s="7">
-        <v>78</v>
-      </c>
-      <c r="D201" s="7">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="7">
-        <v>19903</v>
-      </c>
-      <c r="C202" s="7">
-        <v>2234</v>
-      </c>
-      <c r="D202" s="7">
-        <v>12133</v>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B203" s="7">
+        <v>607</v>
+      </c>
+      <c r="C203" s="7">
+        <v>84</v>
+      </c>
+      <c r="D203" s="7">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3362,59 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <m02c691f3efa402dab5cbaa8c240a9e7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m02c691f3efa402dab5cbaa8c240a9e7>
+    <TaxCatchAll xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Value>5</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <eDocs_FileStatus xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">Live</eDocs_FileStatus>
+    <h1f8bb4843d6459a8b809123185593c7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">218</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d1f665d0-1ea2-48c4-9fae-9dfb881d0110</TermId>
+        </TermInfo>
+      </Terms>
+    </h1f8bb4843d6459a8b809123185593c7>
+    <fbaa881fc4ae443f9fdafbdd527793df xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </fbaa881fc4ae443f9fdafbdd527793df>
+    <_vti_ItemDeclaredRecord xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
+    <nb1b8a72855341e18dd75ce464e281f2 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </nb1b8a72855341e18dd75ce464e281f2>
+    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
+    <mbbd3fafa5ab4e5eb8a6a5e099cef439 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Unclassified</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">779752a3-a421-4077-839c-91815f544ae2</TermId>
+        </TermInfo>
+      </Terms>
+    </mbbd3fafa5ab4e5eb8a6a5e099cef439>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="181" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="9aef13b51d858ac71ab25d278c7edb31">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="992d5dd0ba35d17e896caa4d336a12f8" ns2:_="">
     <xsd:import namespace="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
@@ -3541,73 +3623,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F21DD8-FDF9-4C52-AFF0-B2C23B75D35A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <m02c691f3efa402dab5cbaa8c240a9e7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistics</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9ba6f678-e647-4dac-946a-fcabffeb8025</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">#Reports</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">139e42fd-3e09-4439-bba7-8aeac7f033ff</TermId>
-        </TermInfo>
-      </Terms>
-    </m02c691f3efa402dab5cbaa8c240a9e7>
-    <TaxCatchAll xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Value>8</Value>
-      <Value>5</Value>
-      <Value>10</Value>
-      <Value>1</Value>
-      <Value>7</Value>
-    </TaxCatchAll>
-    <eDocs_FileStatus xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">Live</eDocs_FileStatus>
-    <h1f8bb4843d6459a8b809123185593c7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">218</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d1f665d0-1ea2-48c4-9fae-9dfb881d0110</TermId>
-        </TermInfo>
-      </Terms>
-    </h1f8bb4843d6459a8b809123185593c7>
-    <fbaa881fc4ae443f9fdafbdd527793df xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </fbaa881fc4ae443f9fdafbdd527793df>
-    <_vti_ItemDeclaredRecord xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
-    <nb1b8a72855341e18dd75ce464e281f2 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2023</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">720401db-42e9-4f5b-a7dd-0e2a6af555be</TermId>
-        </TermInfo>
-      </Terms>
-    </nb1b8a72855341e18dd75ce464e281f2>
-    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">ENT218-001-2023</eDocs_eFileName>
-    <mbbd3fafa5ab4e5eb8a6a5e099cef439 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Unclassified</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">779752a3-a421-4077-839c-91815f544ae2</TermId>
-        </TermInfo>
-      </Terms>
-    </mbbd3fafa5ab4e5eb8a6a5e099cef439>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE03459-B834-4D4C-BC01-F1FE6BCA3FEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D20A98-CA77-47A0-A23C-4D66145ADB9F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DD1D76-934A-4795-9556-946B8CD6F146}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -3622,28 +3663,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ACBDE52-D74A-4341-995A-AB613D95ED2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA837AA2-0E16-4D05-A3A1-D36A8509E418}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>